--- a/サンプルアプリケーション/設計書/03_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10203_プロジェクト削除.xlsx
+++ b/サンプルアプリケーション/設計書/03_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10203_プロジェクト削除.xlsx
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="485">
   <si>
     <t>更新者：</t>
     <rPh sb="0" eb="3">
@@ -2079,47 +2079,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Serviceのクラス単体テストで、編集処理が確認できている場合、取引単体テストでこのバリデーションを全てテストする必要はない。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>共通化されたJSPを呼び出す場合、実施不要</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規ウインドウ表示の場合のみテスト</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規ウインドウかつ、IE専用の場合のみテスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最小表示件数が存在するときのみテスト</t>
-    <rPh sb="0" eb="2">
-      <t>サイショウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンスウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>不要。</t>
     <rPh sb="0" eb="2">
       <t>フヨウ</t>
@@ -2127,35 +2086,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">個々の画面で検索条件件数の制御を行っている場合のみテスト
-</t>
-    <rPh sb="0" eb="2">
-      <t>ココ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケンスウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>電文レイアウト(全レコード種類)
 ※Serviceのクラス単体テストで、編集処理が確認できている場合、取引単体テストでこのバリデーションを全てテストする必要はない。</t>
     <phoneticPr fontId="3"/>
@@ -2170,37 +2100,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>業務仕様及びアーキテクチャを踏まえて、観点毎にテスト対象要否を見直すこと。</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カンテン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヨウヒ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ミナオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2-1-1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2284,10 +2183,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファイルアップロードのリクエストで、ファイルの中身を見る場合のみ実施</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>6-6-1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2301,10 +2196,6 @@
   </si>
   <si>
     <t>6-9-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設計書に、特別なファイルサイズ指定がある場合のみ実施する</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2361,10 +2252,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Serviceのクラス単体テストで、編集処理が確認できている場合、取引単体テストでこのバリデーションを全てテストする必要はない。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>8-4-1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2502,10 +2389,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログ出力に業務固有の要件が存在しない場合は、実施不要。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(1)システム機能設計書
 (2)メッセージ設計書</t>
     <phoneticPr fontId="1"/>
@@ -2601,10 +2484,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>共通化されたJSPを呼び出す場合、実施不要</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>11-3-1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2646,16 +2525,6 @@
   </si>
   <si>
     <t>14-3-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>個々の画面で最大表示件数の制御が必要な場合のみテスト</t>
-    <rPh sb="16" eb="18">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>バアイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2966,10 +2835,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファイルアップロードのリクエストで、ファイルの中身を見る場合のみ実施</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>6-6-1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2990,10 +2855,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>設計書に、特別なファイルサイズ指定がある場合のみ実施する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>6-11-1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3039,10 +2900,6 @@
   </si>
   <si>
     <t>12-2-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規ウインドウかつ、IE専用の場合のみテスト</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -12416,9 +12273,7 @@
   </sheetPr>
   <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
   <cols>
@@ -12502,9 +12357,7 @@
       <c r="R8" s="27"/>
     </row>
     <row r="9" spans="1:18" ht="12" thickTop="1">
-      <c r="F9" s="25" t="s">
-        <v>248</v>
-      </c>
+      <c r="F9" s="25"/>
       <c r="G9" s="89"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1">
@@ -12598,14 +12451,14 @@
         <v>43658</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="33"/>
       <c r="R11" s="98"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="99" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="71" t="s">
@@ -12616,10 +12469,10 @@
       <c r="F12" s="162"/>
       <c r="G12" s="163"/>
       <c r="H12" s="164" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I12" s="165" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J12" s="165"/>
       <c r="K12" s="165"/>
@@ -12665,7 +12518,7 @@
     </row>
     <row r="14" spans="1:18" s="32" customFormat="1">
       <c r="A14" s="100" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B14" s="101"/>
       <c r="C14" s="63"/>
@@ -12693,7 +12546,7 @@
     </row>
     <row r="15" spans="1:18" s="32" customFormat="1" ht="56.25">
       <c r="A15" s="100" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B15" s="101"/>
       <c r="C15" s="63"/>
@@ -12721,13 +12574,13 @@
     </row>
     <row r="16" spans="1:18" s="32" customFormat="1" ht="67.5">
       <c r="A16" s="100" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B16" s="101"/>
       <c r="C16" s="63"/>
       <c r="D16" s="72"/>
       <c r="E16" s="179" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F16" s="162"/>
       <c r="G16" s="163"/>
@@ -12749,7 +12602,7 @@
     </row>
     <row r="17" spans="1:18" s="32" customFormat="1">
       <c r="A17" s="73" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B17" s="50"/>
       <c r="C17" s="70"/>
@@ -12777,7 +12630,7 @@
     </row>
     <row r="18" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A18" s="73" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B18" s="50"/>
       <c r="C18" s="72"/>
@@ -12805,7 +12658,7 @@
     </row>
     <row r="19" spans="1:18" s="32" customFormat="1" ht="22.5" hidden="1">
       <c r="A19" s="103" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B19" s="50"/>
       <c r="C19" s="72"/>
@@ -12813,16 +12666,16 @@
         <v>83</v>
       </c>
       <c r="E19" s="212" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F19" s="213" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G19" s="214" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H19" s="215" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I19" s="216" t="s">
         <v>31</v>
@@ -12839,22 +12692,22 @@
     </row>
     <row r="20" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A20" s="104" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B20" s="50"/>
       <c r="C20" s="72"/>
       <c r="D20" s="64"/>
       <c r="E20" s="179" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F20" s="162" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G20" s="163" t="s">
         <v>237</v>
       </c>
       <c r="H20" s="223" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I20" s="224" t="s">
         <v>31</v>
@@ -12871,16 +12724,16 @@
     </row>
     <row r="21" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A21" s="103" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="72"/>
       <c r="D21" s="64"/>
       <c r="E21" s="230" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F21" s="231" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G21" s="232" t="s">
         <v>237</v>
@@ -12903,22 +12756,22 @@
     </row>
     <row r="22" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A22" s="105" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B22" s="50"/>
       <c r="C22" s="72"/>
       <c r="D22" s="64"/>
       <c r="E22" s="230" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F22" s="231" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G22" s="232" t="s">
         <v>237</v>
       </c>
       <c r="H22" s="233" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I22" s="234" t="s">
         <v>31</v>
@@ -12933,20 +12786,20 @@
       <c r="Q22" s="237"/>
       <c r="R22" s="240"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" ht="22.5">
       <c r="A23" s="105" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B23" s="50"/>
       <c r="C23" s="72"/>
-      <c r="D23" s="64"/>
+      <c r="D23" s="211" t="s">
+        <v>83</v>
+      </c>
       <c r="E23" s="241" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="231"/>
-      <c r="G23" s="232" t="s">
-        <v>269</v>
-      </c>
+      <c r="G23" s="232"/>
       <c r="H23" s="233" t="s">
         <v>80</v>
       </c>
@@ -12965,7 +12818,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="105" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B24" s="50"/>
       <c r="C24" s="70"/>
@@ -12974,9 +12827,7 @@
         <v>21</v>
       </c>
       <c r="F24" s="231"/>
-      <c r="G24" s="232" t="s">
-        <v>237</v>
-      </c>
+      <c r="G24" s="232"/>
       <c r="H24" s="233" t="s">
         <v>80</v>
       </c>
@@ -12995,7 +12846,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="105" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B25" s="50"/>
       <c r="C25" s="70"/>
@@ -13004,9 +12855,7 @@
         <v>22</v>
       </c>
       <c r="F25" s="231"/>
-      <c r="G25" s="232" t="s">
-        <v>237</v>
-      </c>
+      <c r="G25" s="232"/>
       <c r="H25" s="233" t="s">
         <v>80</v>
       </c>
@@ -13025,7 +12874,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="105" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="70"/>
@@ -13034,9 +12883,7 @@
         <v>23</v>
       </c>
       <c r="F26" s="231"/>
-      <c r="G26" s="232" t="s">
-        <v>237</v>
-      </c>
+      <c r="G26" s="232"/>
       <c r="H26" s="233" t="s">
         <v>80</v>
       </c>
@@ -13055,7 +12902,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="105" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B27" s="50"/>
       <c r="C27" s="70"/>
@@ -13064,9 +12911,7 @@
         <v>19</v>
       </c>
       <c r="F27" s="231"/>
-      <c r="G27" s="232" t="s">
-        <v>237</v>
-      </c>
+      <c r="G27" s="232"/>
       <c r="H27" s="233" t="s">
         <v>80</v>
       </c>
@@ -13094,9 +12939,7 @@
         <v>28</v>
       </c>
       <c r="F28" s="244"/>
-      <c r="G28" s="245" t="s">
-        <v>274</v>
-      </c>
+      <c r="G28" s="245"/>
       <c r="H28" s="246" t="s">
         <v>80</v>
       </c>
@@ -13115,7 +12958,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="106" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="72"/>
@@ -13124,9 +12967,7 @@
         <v>30</v>
       </c>
       <c r="F29" s="255"/>
-      <c r="G29" s="256" t="s">
-        <v>237</v>
-      </c>
+      <c r="G29" s="256"/>
       <c r="H29" s="257" t="s">
         <v>80</v>
       </c>
@@ -13145,23 +12986,23 @@
     </row>
     <row r="30" spans="1:18" ht="22.5">
       <c r="A30" s="73" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B30" s="50"/>
       <c r="C30" s="72"/>
       <c r="D30" s="72" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E30" s="254" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F30" s="255"/>
       <c r="G30" s="256"/>
       <c r="H30" s="257" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I30" s="265" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J30" s="258"/>
       <c r="K30" s="258"/>
@@ -13175,15 +13016,15 @@
     </row>
     <row r="31" spans="1:18" s="32" customFormat="1" ht="50.25" customHeight="1">
       <c r="A31" s="73" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B31" s="101"/>
       <c r="C31" s="63"/>
       <c r="D31" s="266" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E31" s="267" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F31" s="255"/>
       <c r="G31" s="256"/>
@@ -13205,13 +13046,13 @@
     </row>
     <row r="32" spans="1:18" s="32" customFormat="1" ht="57" customHeight="1">
       <c r="A32" s="73" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B32" s="101"/>
       <c r="C32" s="63"/>
       <c r="D32" s="276"/>
       <c r="E32" s="267" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F32" s="255"/>
       <c r="G32" s="256"/>
@@ -13233,18 +13074,16 @@
     </row>
     <row r="33" spans="1:18" s="32" customFormat="1" ht="45">
       <c r="A33" s="73" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B33" s="101"/>
       <c r="C33" s="63"/>
       <c r="D33" s="276"/>
       <c r="E33" s="267" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F33" s="255"/>
-      <c r="G33" s="256" t="s">
-        <v>288</v>
-      </c>
+      <c r="G33" s="256"/>
       <c r="H33" s="268" t="s">
         <v>138</v>
       </c>
@@ -13263,18 +13102,16 @@
     </row>
     <row r="34" spans="1:18" s="32" customFormat="1" ht="50.25" customHeight="1">
       <c r="A34" s="73" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B34" s="101"/>
       <c r="C34" s="63"/>
       <c r="D34" s="276"/>
       <c r="E34" s="267" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F34" s="255"/>
-      <c r="G34" s="256" t="s">
-        <v>237</v>
-      </c>
+      <c r="G34" s="256"/>
       <c r="H34" s="268" t="s">
         <v>138</v>
       </c>
@@ -13293,18 +13130,16 @@
     </row>
     <row r="35" spans="1:18" ht="50.25" customHeight="1">
       <c r="A35" s="73" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B35" s="101"/>
       <c r="C35" s="63"/>
       <c r="D35" s="276"/>
       <c r="E35" s="267" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F35" s="255"/>
-      <c r="G35" s="256" t="s">
-        <v>237</v>
-      </c>
+      <c r="G35" s="256"/>
       <c r="H35" s="268" t="s">
         <v>138</v>
       </c>
@@ -13323,18 +13158,16 @@
     </row>
     <row r="36" spans="1:18" ht="50.25" customHeight="1">
       <c r="A36" s="73" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B36" s="101"/>
       <c r="C36" s="63"/>
       <c r="D36" s="276"/>
       <c r="E36" s="267" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F36" s="255"/>
-      <c r="G36" s="256" t="s">
-        <v>237</v>
-      </c>
+      <c r="G36" s="256"/>
       <c r="H36" s="268" t="s">
         <v>138</v>
       </c>
@@ -13353,21 +13186,21 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="73" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B37" s="101"/>
       <c r="C37" s="63"/>
       <c r="D37" s="276"/>
       <c r="E37" s="267" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F37" s="255"/>
       <c r="G37" s="256"/>
       <c r="H37" s="268" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="I37" s="269" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="J37" s="269"/>
       <c r="K37" s="269"/>
@@ -13381,21 +13214,21 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="73" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B38" s="101"/>
       <c r="C38" s="63"/>
       <c r="D38" s="276"/>
       <c r="E38" s="267" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F38" s="255"/>
       <c r="G38" s="256"/>
       <c r="H38" s="268" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="I38" s="269" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="J38" s="269"/>
       <c r="K38" s="269"/>
@@ -13409,21 +13242,21 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="73" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B39" s="101"/>
       <c r="C39" s="63"/>
       <c r="D39" s="280"/>
       <c r="E39" s="267" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F39" s="255"/>
       <c r="G39" s="256"/>
       <c r="H39" s="268" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="I39" s="269" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="J39" s="269"/>
       <c r="K39" s="269"/>
@@ -13437,15 +13270,15 @@
     </row>
     <row r="40" spans="1:18" ht="59.25" customHeight="1">
       <c r="A40" s="40" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B40" s="101"/>
       <c r="C40" s="63"/>
       <c r="D40" s="281" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="E40" s="267" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F40" s="255"/>
       <c r="G40" s="256"/>
@@ -13467,18 +13300,16 @@
     </row>
     <row r="41" spans="1:18" ht="45">
       <c r="A41" s="40" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B41" s="101"/>
       <c r="C41" s="63"/>
       <c r="D41" s="276"/>
       <c r="E41" s="267" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F41" s="255"/>
-      <c r="G41" s="256" t="s">
-        <v>288</v>
-      </c>
+      <c r="G41" s="256"/>
       <c r="H41" s="268" t="s">
         <v>138</v>
       </c>
@@ -13497,18 +13328,16 @@
     </row>
     <row r="42" spans="1:18" ht="54.75" customHeight="1">
       <c r="A42" s="40" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B42" s="101"/>
       <c r="C42" s="63"/>
       <c r="D42" s="276"/>
       <c r="E42" s="267" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F42" s="255"/>
-      <c r="G42" s="256" t="s">
-        <v>237</v>
-      </c>
+      <c r="G42" s="256"/>
       <c r="H42" s="268" t="s">
         <v>138</v>
       </c>
@@ -13527,18 +13356,16 @@
     </row>
     <row r="43" spans="1:18" ht="54.75" customHeight="1">
       <c r="A43" s="40" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B43" s="101"/>
       <c r="C43" s="63"/>
       <c r="D43" s="276"/>
       <c r="E43" s="267" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F43" s="255"/>
-      <c r="G43" s="256" t="s">
-        <v>237</v>
-      </c>
+      <c r="G43" s="256"/>
       <c r="H43" s="268" t="s">
         <v>138</v>
       </c>
@@ -13557,21 +13384,21 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="40" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B44" s="101"/>
       <c r="C44" s="63"/>
       <c r="D44" s="276"/>
       <c r="E44" s="282" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F44" s="255"/>
       <c r="G44" s="256"/>
       <c r="H44" s="283" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="I44" s="284" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J44" s="284"/>
       <c r="K44" s="284"/>
@@ -13585,7 +13412,7 @@
     </row>
     <row r="45" spans="1:18" ht="22.5">
       <c r="A45" s="40" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B45" s="108"/>
       <c r="C45" s="371" t="s">
@@ -13593,17 +13420,15 @@
       </c>
       <c r="D45" s="289"/>
       <c r="E45" s="289" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F45" s="290"/>
-      <c r="G45" s="291" t="s">
-        <v>323</v>
-      </c>
+      <c r="G45" s="291"/>
       <c r="H45" s="292" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="I45" s="293" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="J45" s="293"/>
       <c r="K45" s="293"/>
@@ -13617,20 +13442,18 @@
     </row>
     <row r="46" spans="1:18" ht="22.5">
       <c r="A46" s="40" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B46" s="108"/>
       <c r="C46" s="63"/>
       <c r="D46" s="276"/>
       <c r="E46" s="298" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F46" s="299"/>
-      <c r="G46" s="300" t="s">
-        <v>237</v>
-      </c>
+      <c r="G46" s="300"/>
       <c r="H46" s="301" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="I46" s="302" t="s">
         <v>159</v>
@@ -13647,7 +13470,7 @@
     </row>
     <row r="47" spans="1:18" ht="22.5">
       <c r="A47" s="40" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B47" s="108"/>
       <c r="C47" s="63"/>
@@ -13656,9 +13479,7 @@
         <v>158</v>
       </c>
       <c r="F47" s="308"/>
-      <c r="G47" s="309" t="s">
-        <v>237</v>
-      </c>
+      <c r="G47" s="309"/>
       <c r="H47" s="310" t="s">
         <v>142</v>
       </c>
@@ -13677,23 +13498,21 @@
     </row>
     <row r="48" spans="1:18" ht="22.5">
       <c r="A48" s="40" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B48" s="108"/>
       <c r="C48" s="63"/>
       <c r="D48" s="276"/>
       <c r="E48" s="316" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F48" s="317"/>
-      <c r="G48" s="318" t="s">
-        <v>237</v>
-      </c>
+      <c r="G48" s="318"/>
       <c r="H48" s="319" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I48" s="320" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J48" s="320"/>
       <c r="K48" s="320"/>
@@ -13707,23 +13526,21 @@
     </row>
     <row r="49" spans="1:18" ht="33.75">
       <c r="A49" s="40" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B49" s="108"/>
       <c r="C49" s="63"/>
       <c r="D49" s="276"/>
       <c r="E49" s="325" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F49" s="326"/>
-      <c r="G49" s="327" t="s">
-        <v>237</v>
-      </c>
+      <c r="G49" s="327"/>
       <c r="H49" s="328" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I49" s="329" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J49" s="329"/>
       <c r="K49" s="329"/>
@@ -13737,23 +13554,21 @@
     </row>
     <row r="50" spans="1:18" ht="22.5">
       <c r="A50" s="40" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B50" s="108"/>
       <c r="C50" s="63"/>
       <c r="D50" s="276"/>
       <c r="E50" s="334" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="F50" s="335"/>
-      <c r="G50" s="336" t="s">
-        <v>237</v>
-      </c>
+      <c r="G50" s="336"/>
       <c r="H50" s="337" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I50" s="338" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J50" s="338"/>
       <c r="K50" s="338"/>
@@ -13767,23 +13582,21 @@
     </row>
     <row r="51" spans="1:18" ht="22.5">
       <c r="A51" s="40" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B51" s="108"/>
       <c r="C51" s="63"/>
       <c r="D51" s="276"/>
       <c r="E51" s="343" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F51" s="344"/>
-      <c r="G51" s="345" t="s">
-        <v>237</v>
-      </c>
+      <c r="G51" s="345"/>
       <c r="H51" s="346" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I51" s="347" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J51" s="347"/>
       <c r="K51" s="347"/>
@@ -13806,9 +13619,7 @@
         <v>160</v>
       </c>
       <c r="F52" s="353"/>
-      <c r="G52" s="354" t="s">
-        <v>237</v>
-      </c>
+      <c r="G52" s="354"/>
       <c r="H52" s="355" t="s">
         <v>142</v>
       </c>
@@ -13827,23 +13638,21 @@
     </row>
     <row r="53" spans="1:18" ht="22.5">
       <c r="A53" s="40" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B53" s="110"/>
       <c r="C53" s="372"/>
       <c r="D53" s="276"/>
       <c r="E53" s="361" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F53" s="362"/>
-      <c r="G53" s="363" t="s">
-        <v>237</v>
-      </c>
+      <c r="G53" s="363"/>
       <c r="H53" s="364" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I53" s="365" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J53" s="365"/>
       <c r="K53" s="365"/>
@@ -13857,7 +13666,7 @@
     </row>
     <row r="54" spans="1:18" s="32" customFormat="1" ht="33.75">
       <c r="A54" s="40" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B54" s="39" t="s">
         <v>39</v>
@@ -13866,10 +13675,10 @@
         <v>40</v>
       </c>
       <c r="D54" s="111" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="E54" s="112" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="F54" s="113"/>
       <c r="G54" s="114"/>
@@ -13894,14 +13703,14 @@
         <v>43658</v>
       </c>
       <c r="P54" s="116" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q54" s="48"/>
       <c r="R54" s="109"/>
     </row>
     <row r="55" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A55" s="40" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
@@ -13910,9 +13719,7 @@
         <v>43</v>
       </c>
       <c r="F55" s="353"/>
-      <c r="G55" s="354" t="s">
-        <v>347</v>
-      </c>
+      <c r="G55" s="354"/>
       <c r="H55" s="374" t="s">
         <v>41</v>
       </c>
@@ -13931,7 +13738,7 @@
     </row>
     <row r="56" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A56" s="40" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
@@ -13940,9 +13747,7 @@
         <v>44</v>
       </c>
       <c r="F56" s="353"/>
-      <c r="G56" s="354" t="s">
-        <v>237</v>
-      </c>
+      <c r="G56" s="354"/>
       <c r="H56" s="374" t="s">
         <v>41</v>
       </c>
@@ -13961,7 +13766,7 @@
     </row>
     <row r="57" spans="1:18" s="41" customFormat="1" ht="33.75">
       <c r="A57" s="40" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
@@ -13992,14 +13797,14 @@
         <v>43658</v>
       </c>
       <c r="P57" s="35" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q57" s="33"/>
       <c r="R57" s="122"/>
     </row>
     <row r="58" spans="1:18" s="41" customFormat="1" ht="22.5">
       <c r="A58" s="40" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
@@ -14008,9 +13813,7 @@
         <v>46</v>
       </c>
       <c r="F58" s="353"/>
-      <c r="G58" s="354" t="s">
-        <v>347</v>
-      </c>
+      <c r="G58" s="354"/>
       <c r="H58" s="374" t="s">
         <v>41</v>
       </c>
@@ -14029,20 +13832,18 @@
     </row>
     <row r="59" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A59" s="40" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
       <c r="D59" s="123" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="E59" s="376" t="s">
         <v>47</v>
       </c>
       <c r="F59" s="377"/>
-      <c r="G59" s="378" t="s">
-        <v>240</v>
-      </c>
+      <c r="G59" s="378"/>
       <c r="H59" s="379" t="s">
         <v>41</v>
       </c>
@@ -14070,9 +13871,7 @@
         <v>48</v>
       </c>
       <c r="F60" s="377"/>
-      <c r="G60" s="378" t="s">
-        <v>241</v>
-      </c>
+      <c r="G60" s="378"/>
       <c r="H60" s="379" t="s">
         <v>41</v>
       </c>
@@ -14091,7 +13890,7 @@
     </row>
     <row r="61" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A61" s="40" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
@@ -14111,7 +13910,7 @@
         <v>222</v>
       </c>
       <c r="K61" s="127" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="L61" s="36"/>
       <c r="M61" s="34"/>
@@ -14122,14 +13921,14 @@
         <v>43658</v>
       </c>
       <c r="P61" s="35" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q61" s="33"/>
       <c r="R61" s="128"/>
     </row>
     <row r="62" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A62" s="40" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
@@ -14161,7 +13960,7 @@
     </row>
     <row r="63" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A63" s="40" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
@@ -14181,7 +13980,7 @@
         <v>222</v>
       </c>
       <c r="K63" s="127" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="L63" s="36"/>
       <c r="M63" s="34"/>
@@ -14192,14 +13991,14 @@
         <v>43658</v>
       </c>
       <c r="P63" s="35" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q63" s="33"/>
       <c r="R63" s="128"/>
     </row>
     <row r="64" spans="1:18" s="32" customFormat="1" ht="33.75">
       <c r="A64" s="40" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
@@ -14232,7 +14031,7 @@
         <v>43658</v>
       </c>
       <c r="P64" s="35" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q64" s="33"/>
       <c r="R64" s="128"/>
@@ -14270,14 +14069,14 @@
         <v>43658</v>
       </c>
       <c r="P65" s="35" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q65" s="33"/>
       <c r="R65" s="128"/>
     </row>
     <row r="66" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A66" s="40" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
@@ -14286,9 +14085,7 @@
         <v>169</v>
       </c>
       <c r="F66" s="377"/>
-      <c r="G66" s="378" t="s">
-        <v>242</v>
-      </c>
+      <c r="G66" s="378"/>
       <c r="H66" s="379" t="s">
         <v>36</v>
       </c>
@@ -14316,10 +14113,10 @@
         <v>170</v>
       </c>
       <c r="F67" s="377" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G67" s="378" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H67" s="379" t="s">
         <v>36</v>
@@ -14348,9 +14145,7 @@
         <v>109</v>
       </c>
       <c r="F68" s="377"/>
-      <c r="G68" s="378" t="s">
-        <v>359</v>
-      </c>
+      <c r="G68" s="378"/>
       <c r="H68" s="379" t="s">
         <v>36</v>
       </c>
@@ -14369,7 +14164,7 @@
     </row>
     <row r="69" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A69" s="40" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="B69" s="39"/>
       <c r="C69" s="39"/>
@@ -14378,9 +14173,7 @@
         <v>167</v>
       </c>
       <c r="F69" s="377"/>
-      <c r="G69" s="378" t="s">
-        <v>237</v>
-      </c>
+      <c r="G69" s="378"/>
       <c r="H69" s="379" t="s">
         <v>36</v>
       </c>
@@ -14408,9 +14201,7 @@
         <v>110</v>
       </c>
       <c r="F70" s="377"/>
-      <c r="G70" s="378" t="s">
-        <v>244</v>
-      </c>
+      <c r="G70" s="378"/>
       <c r="H70" s="379" t="s">
         <v>36</v>
       </c>
@@ -14429,7 +14220,7 @@
     </row>
     <row r="71" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A71" s="40" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
@@ -14438,9 +14229,7 @@
         <v>199</v>
       </c>
       <c r="F71" s="377"/>
-      <c r="G71" s="378" t="s">
-        <v>237</v>
-      </c>
+      <c r="G71" s="378"/>
       <c r="H71" s="379" t="s">
         <v>36</v>
       </c>
@@ -14467,7 +14256,7 @@
         <v>165</v>
       </c>
       <c r="E72" s="380" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="F72" s="377"/>
       <c r="G72" s="378"/>
@@ -14605,7 +14394,7 @@
     </row>
     <row r="77" spans="1:18" s="32" customFormat="1">
       <c r="A77" s="40" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
@@ -14672,7 +14461,7 @@
       <c r="F79" s="385"/>
       <c r="G79" s="386"/>
       <c r="H79" s="387" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="I79" s="388" t="s">
         <v>59</v>
@@ -14689,7 +14478,7 @@
     </row>
     <row r="80" spans="1:18" s="32" customFormat="1" ht="22.5" hidden="1">
       <c r="A80" s="40" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
@@ -14698,13 +14487,13 @@
       </c>
       <c r="E80" s="392"/>
       <c r="F80" s="393" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G80" s="394" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="H80" s="395" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="I80" s="396" t="s">
         <v>201</v>
@@ -14721,7 +14510,7 @@
     </row>
     <row r="81" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A81" s="40" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B81" s="39"/>
       <c r="C81" s="130" t="s">
@@ -14734,7 +14523,7 @@
       <c r="F81" s="134"/>
       <c r="G81" s="135"/>
       <c r="H81" s="130" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I81" s="130" t="s">
         <v>66</v>
@@ -14754,14 +14543,14 @@
         <v>43658</v>
       </c>
       <c r="P81" s="139" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q81" s="138"/>
       <c r="R81" s="140"/>
     </row>
     <row r="82" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A82" s="40" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B82" s="39"/>
       <c r="C82" s="39"/>
@@ -14774,7 +14563,7 @@
       <c r="F82" s="134"/>
       <c r="G82" s="135"/>
       <c r="H82" s="130" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I82" s="130" t="s">
         <v>66</v>
@@ -14794,25 +14583,25 @@
         <v>43658</v>
       </c>
       <c r="P82" s="139" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q82" s="138"/>
       <c r="R82" s="140"/>
     </row>
     <row r="83" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A83" s="40" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="B83" s="39"/>
       <c r="C83" s="39"/>
       <c r="D83" s="141"/>
       <c r="E83" s="142" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="F83" s="134"/>
       <c r="G83" s="135"/>
       <c r="H83" s="130" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I83" s="130" t="s">
         <v>66</v>
@@ -14832,14 +14621,14 @@
         <v>43658</v>
       </c>
       <c r="P83" s="139" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q83" s="138"/>
       <c r="R83" s="140"/>
     </row>
     <row r="84" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A84" s="40" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="B84" s="39"/>
       <c r="C84" s="39"/>
@@ -14850,7 +14639,7 @@
       <c r="F84" s="134"/>
       <c r="G84" s="135"/>
       <c r="H84" s="130" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I84" s="130" t="s">
         <v>66</v>
@@ -14870,14 +14659,14 @@
         <v>43658</v>
       </c>
       <c r="P84" s="139" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q84" s="138"/>
       <c r="R84" s="140"/>
     </row>
     <row r="85" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A85" s="40" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B85" s="39"/>
       <c r="C85" s="39"/>
@@ -14888,7 +14677,7 @@
       <c r="F85" s="134"/>
       <c r="G85" s="135"/>
       <c r="H85" s="130" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I85" s="130" t="s">
         <v>66</v>
@@ -14908,14 +14697,14 @@
         <v>43658</v>
       </c>
       <c r="P85" s="139" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q85" s="138"/>
       <c r="R85" s="140"/>
     </row>
     <row r="86" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A86" s="40" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="B86" s="39"/>
       <c r="C86" s="39"/>
@@ -14926,7 +14715,7 @@
       <c r="F86" s="134"/>
       <c r="G86" s="135"/>
       <c r="H86" s="130" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I86" s="130" t="s">
         <v>66</v>
@@ -14946,29 +14735,29 @@
         <v>43658</v>
       </c>
       <c r="P86" s="139" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q86" s="138"/>
       <c r="R86" s="140"/>
     </row>
     <row r="87" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A87" s="40" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B87" s="39"/>
       <c r="C87" s="39"/>
       <c r="D87" s="399" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="E87" s="400"/>
       <c r="F87" s="401" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G87" s="402" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="H87" s="396" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I87" s="396" t="s">
         <v>66</v>
@@ -14985,7 +14774,7 @@
     </row>
     <row r="88" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A88" s="40" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="B88" s="39"/>
       <c r="C88" s="39"/>
@@ -14994,13 +14783,13 @@
       </c>
       <c r="E88" s="400"/>
       <c r="F88" s="401" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G88" s="402" t="s">
         <v>237</v>
       </c>
       <c r="H88" s="396" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I88" s="396" t="s">
         <v>66</v>
@@ -15017,7 +14806,7 @@
     </row>
     <row r="89" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A89" s="40" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B89" s="39"/>
       <c r="C89" s="39"/>
@@ -15026,13 +14815,13 @@
       </c>
       <c r="E89" s="400"/>
       <c r="F89" s="401" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G89" s="402" t="s">
         <v>237</v>
       </c>
       <c r="H89" s="396" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I89" s="396" t="s">
         <v>66</v>
@@ -15049,7 +14838,7 @@
     </row>
     <row r="90" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A90" s="40" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B90" s="39"/>
       <c r="C90" s="39"/>
@@ -15058,13 +14847,13 @@
       </c>
       <c r="E90" s="400"/>
       <c r="F90" s="401" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G90" s="402" t="s">
         <v>237</v>
       </c>
       <c r="H90" s="396" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I90" s="396" t="s">
         <v>66</v>
@@ -15081,7 +14870,7 @@
     </row>
     <row r="91" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A91" s="40" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B91" s="39"/>
       <c r="C91" s="39"/>
@@ -15090,13 +14879,13 @@
       </c>
       <c r="E91" s="400"/>
       <c r="F91" s="401" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G91" s="402" t="s">
         <v>237</v>
       </c>
       <c r="H91" s="396" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I91" s="396" t="s">
         <v>66</v>
@@ -15113,7 +14902,7 @@
     </row>
     <row r="92" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A92" s="40" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B92" s="39"/>
       <c r="C92" s="39"/>
@@ -15124,7 +14913,7 @@
       <c r="F92" s="134"/>
       <c r="G92" s="135"/>
       <c r="H92" s="130" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I92" s="130" t="s">
         <v>66</v>
@@ -15144,14 +14933,14 @@
         <v>43658</v>
       </c>
       <c r="P92" s="139" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q92" s="138"/>
       <c r="R92" s="140"/>
     </row>
     <row r="93" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A93" s="40" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B93" s="39"/>
       <c r="C93" s="39"/>
@@ -15162,7 +14951,7 @@
       <c r="F93" s="401"/>
       <c r="G93" s="402"/>
       <c r="H93" s="396" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I93" s="396" t="s">
         <v>66</v>
@@ -15179,7 +14968,7 @@
     </row>
     <row r="94" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A94" s="40" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="B94" s="39"/>
       <c r="C94" s="39"/>
@@ -15190,7 +14979,7 @@
       <c r="F94" s="401"/>
       <c r="G94" s="402"/>
       <c r="H94" s="396" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I94" s="396" t="s">
         <v>66</v>
@@ -15207,7 +14996,7 @@
     </row>
     <row r="95" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A95" s="40" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B95" s="39"/>
       <c r="C95" s="39"/>
@@ -15218,7 +15007,7 @@
       <c r="F95" s="401"/>
       <c r="G95" s="402"/>
       <c r="H95" s="409" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I95" s="409" t="s">
         <v>66</v>
@@ -15235,7 +15024,7 @@
     </row>
     <row r="96" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A96" s="40" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B96" s="39"/>
       <c r="C96" s="39"/>
@@ -15246,7 +15035,7 @@
       <c r="F96" s="401"/>
       <c r="G96" s="402"/>
       <c r="H96" s="396" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I96" s="396" t="s">
         <v>66</v>
@@ -15263,7 +15052,7 @@
     </row>
     <row r="97" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A97" s="40" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B97" s="39"/>
       <c r="C97" s="39"/>
@@ -15272,13 +15061,13 @@
       </c>
       <c r="E97" s="400"/>
       <c r="F97" s="401" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G97" s="402" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="H97" s="409" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I97" s="409" t="s">
         <v>66</v>
@@ -15295,18 +15084,18 @@
     </row>
     <row r="98" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A98" s="40" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B98" s="39"/>
       <c r="C98" s="39"/>
       <c r="D98" s="77" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="E98" s="411"/>
       <c r="F98" s="393"/>
       <c r="G98" s="394"/>
       <c r="H98" s="388" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="I98" s="388" t="s">
         <v>66</v>
@@ -15323,18 +15112,18 @@
     </row>
     <row r="99" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A99" s="40" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B99" s="39"/>
       <c r="C99" s="39"/>
       <c r="D99" s="77" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="E99" s="411"/>
       <c r="F99" s="393"/>
       <c r="G99" s="394"/>
       <c r="H99" s="388" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="I99" s="388" t="s">
         <v>66</v>
@@ -15351,7 +15140,7 @@
     </row>
     <row r="100" spans="1:18" s="32" customFormat="1" ht="45" customHeight="1">
       <c r="A100" s="144" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="B100" s="39"/>
       <c r="C100" s="39"/>
@@ -15362,7 +15151,7 @@
       <c r="F100" s="124"/>
       <c r="G100" s="125"/>
       <c r="H100" s="146" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="I100" s="146" t="s">
         <v>66</v>
@@ -15382,29 +15171,29 @@
         <v>43658</v>
       </c>
       <c r="P100" s="151" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q100" s="150"/>
       <c r="R100" s="152"/>
     </row>
     <row r="101" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A101" s="153" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="B101" s="39"/>
       <c r="C101" s="39"/>
       <c r="D101" s="77" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E101" s="411"/>
       <c r="F101" s="377" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G101" s="378" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="H101" s="72" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I101" s="72" t="s">
         <v>66</v>
@@ -15421,7 +15210,7 @@
     </row>
     <row r="102" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A102" s="144" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B102" s="79"/>
       <c r="C102" s="79"/>
@@ -15430,16 +15219,16 @@
       </c>
       <c r="E102" s="424"/>
       <c r="F102" s="377" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G102" s="378" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H102" s="425" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I102" s="425" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J102" s="426"/>
       <c r="K102" s="426"/>
@@ -15646,9 +15435,7 @@
   </sheetPr>
   <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C57" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I7"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
   <cols>
@@ -15732,14 +15519,12 @@
       <c r="R8" s="27"/>
     </row>
     <row r="9" spans="1:18" ht="12" thickTop="1">
-      <c r="F9" s="25" t="s">
-        <v>248</v>
-      </c>
+      <c r="F9" s="25"/>
       <c r="G9" s="89"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1">
       <c r="A10" s="37" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>9</v>
@@ -15775,7 +15560,7 @@
         <v>2</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="N10" s="30" t="s">
         <v>5</v>
@@ -15828,14 +15613,14 @@
         <v>43658</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="33"/>
       <c r="R11" s="440"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="435" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="71" t="s">
@@ -15846,10 +15631,10 @@
       <c r="F12" s="57"/>
       <c r="G12" s="479"/>
       <c r="H12" s="58" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="I12" s="480" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="J12" s="480"/>
       <c r="K12" s="480"/>
@@ -15863,7 +15648,7 @@
     </row>
     <row r="13" spans="1:18" s="32" customFormat="1" ht="56.25">
       <c r="A13" s="435" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="B13" s="101"/>
       <c r="C13" s="441" t="s">
@@ -15895,7 +15680,7 @@
     </row>
     <row r="14" spans="1:18" s="32" customFormat="1">
       <c r="A14" s="435" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B14" s="101"/>
       <c r="C14" s="74"/>
@@ -15923,7 +15708,7 @@
     </row>
     <row r="15" spans="1:18" s="32" customFormat="1" ht="56.25">
       <c r="A15" s="435" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="B15" s="101"/>
       <c r="C15" s="74"/>
@@ -15951,13 +15736,13 @@
     </row>
     <row r="16" spans="1:18" s="32" customFormat="1" ht="67.5">
       <c r="A16" s="435" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B16" s="101"/>
       <c r="C16" s="74"/>
       <c r="D16" s="72"/>
       <c r="E16" s="503" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="F16" s="483"/>
       <c r="G16" s="484"/>
@@ -15979,7 +15764,7 @@
     </row>
     <row r="17" spans="1:18" s="32" customFormat="1">
       <c r="A17" s="73" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B17" s="50"/>
       <c r="C17" s="102"/>
@@ -16007,7 +15792,7 @@
     </row>
     <row r="18" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A18" s="73" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="B18" s="50"/>
       <c r="C18" s="39"/>
@@ -16035,7 +15820,7 @@
     </row>
     <row r="19" spans="1:18" s="32" customFormat="1" ht="22.5" hidden="1">
       <c r="A19" s="442" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B19" s="50"/>
       <c r="C19" s="39"/>
@@ -16043,16 +15828,16 @@
         <v>83</v>
       </c>
       <c r="E19" s="76" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="G19" s="479" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H19" s="504" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="I19" s="508" t="s">
         <v>31</v>
@@ -16069,22 +15854,22 @@
     </row>
     <row r="20" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A20" s="442" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B20" s="50"/>
       <c r="C20" s="39"/>
       <c r="D20" s="64"/>
       <c r="E20" s="503" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="F20" s="483" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="G20" s="484" t="s">
         <v>237</v>
       </c>
       <c r="H20" s="510" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="I20" s="511" t="s">
         <v>31</v>
@@ -16101,22 +15886,22 @@
     </row>
     <row r="21" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A21" s="442" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="39"/>
       <c r="D21" s="64"/>
       <c r="E21" s="503" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="F21" s="483" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="G21" s="484" t="s">
         <v>237</v>
       </c>
       <c r="H21" s="510" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="I21" s="511" t="s">
         <v>31</v>
@@ -16133,22 +15918,22 @@
     </row>
     <row r="22" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A22" s="442" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="B22" s="50"/>
       <c r="C22" s="39"/>
       <c r="D22" s="64"/>
       <c r="E22" s="503" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="F22" s="483" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="G22" s="484" t="s">
         <v>237</v>
       </c>
       <c r="H22" s="510" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="I22" s="511" t="s">
         <v>31</v>
@@ -16163,20 +15948,20 @@
       <c r="Q22" s="514"/>
       <c r="R22" s="506"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" ht="22.5">
       <c r="A23" s="442" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="B23" s="50"/>
       <c r="C23" s="39"/>
-      <c r="D23" s="64"/>
+      <c r="D23" s="509" t="s">
+        <v>83</v>
+      </c>
       <c r="E23" s="517" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="483"/>
-      <c r="G23" s="484" t="s">
-        <v>425</v>
-      </c>
+      <c r="G23" s="484"/>
       <c r="H23" s="510" t="s">
         <v>80</v>
       </c>
@@ -16195,7 +15980,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="442" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="B24" s="50"/>
       <c r="C24" s="102"/>
@@ -16204,9 +15989,7 @@
         <v>21</v>
       </c>
       <c r="F24" s="483"/>
-      <c r="G24" s="484" t="s">
-        <v>237</v>
-      </c>
+      <c r="G24" s="484"/>
       <c r="H24" s="510" t="s">
         <v>80</v>
       </c>
@@ -16225,7 +16008,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="442" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B25" s="50"/>
       <c r="C25" s="102"/>
@@ -16234,9 +16017,7 @@
         <v>22</v>
       </c>
       <c r="F25" s="483"/>
-      <c r="G25" s="484" t="s">
-        <v>237</v>
-      </c>
+      <c r="G25" s="484"/>
       <c r="H25" s="510" t="s">
         <v>80</v>
       </c>
@@ -16255,7 +16036,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="442" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="102"/>
@@ -16264,9 +16045,7 @@
         <v>23</v>
       </c>
       <c r="F26" s="483"/>
-      <c r="G26" s="484" t="s">
-        <v>237</v>
-      </c>
+      <c r="G26" s="484"/>
       <c r="H26" s="510" t="s">
         <v>80</v>
       </c>
@@ -16285,7 +16064,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="442" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="B27" s="50"/>
       <c r="C27" s="102"/>
@@ -16294,9 +16073,7 @@
         <v>19</v>
       </c>
       <c r="F27" s="483"/>
-      <c r="G27" s="484" t="s">
-        <v>237</v>
-      </c>
+      <c r="G27" s="484"/>
       <c r="H27" s="510" t="s">
         <v>80</v>
       </c>
@@ -16315,7 +16092,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="442" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="B28" s="50"/>
       <c r="C28" s="39"/>
@@ -16324,9 +16101,7 @@
         <v>28</v>
       </c>
       <c r="F28" s="520"/>
-      <c r="G28" s="521" t="s">
-        <v>431</v>
-      </c>
+      <c r="G28" s="521"/>
       <c r="H28" s="522" t="s">
         <v>80</v>
       </c>
@@ -16345,7 +16120,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="443" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="39"/>
@@ -16354,9 +16129,7 @@
         <v>30</v>
       </c>
       <c r="F29" s="530"/>
-      <c r="G29" s="531" t="s">
-        <v>237</v>
-      </c>
+      <c r="G29" s="531"/>
       <c r="H29" s="532" t="s">
         <v>80</v>
       </c>
@@ -16375,20 +16148,20 @@
     </row>
     <row r="30" spans="1:18" ht="22.5">
       <c r="A30" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="B30" s="50"/>
       <c r="C30" s="39"/>
       <c r="D30" s="72" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="E30" s="254" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="F30" s="530"/>
       <c r="G30" s="531"/>
       <c r="H30" s="532" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="I30" s="540" t="s">
         <v>172</v>
@@ -16441,7 +16214,7 @@
       <c r="C32" s="74"/>
       <c r="D32" s="276"/>
       <c r="E32" s="542" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F32" s="530"/>
       <c r="G32" s="531"/>
@@ -16469,12 +16242,10 @@
       <c r="C33" s="74"/>
       <c r="D33" s="276"/>
       <c r="E33" s="542" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="F33" s="530"/>
-      <c r="G33" s="531" t="s">
-        <v>238</v>
-      </c>
+      <c r="G33" s="531"/>
       <c r="H33" s="543" t="s">
         <v>138</v>
       </c>
@@ -16502,9 +16273,7 @@
         <v>103</v>
       </c>
       <c r="F34" s="530"/>
-      <c r="G34" s="531" t="s">
-        <v>237</v>
-      </c>
+      <c r="G34" s="531"/>
       <c r="H34" s="543" t="s">
         <v>138</v>
       </c>
@@ -16529,12 +16298,10 @@
       <c r="C35" s="74"/>
       <c r="D35" s="276"/>
       <c r="E35" s="542" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F35" s="530"/>
-      <c r="G35" s="531" t="s">
-        <v>237</v>
-      </c>
+      <c r="G35" s="531"/>
       <c r="H35" s="543" t="s">
         <v>138</v>
       </c>
@@ -16562,9 +16329,7 @@
         <v>104</v>
       </c>
       <c r="F36" s="530"/>
-      <c r="G36" s="531" t="s">
-        <v>237</v>
-      </c>
+      <c r="G36" s="531"/>
       <c r="H36" s="543" t="s">
         <v>138</v>
       </c>
@@ -16589,7 +16354,7 @@
       <c r="C37" s="74"/>
       <c r="D37" s="276"/>
       <c r="E37" s="542" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F37" s="530"/>
       <c r="G37" s="531"/>
@@ -16617,7 +16382,7 @@
       <c r="C38" s="74"/>
       <c r="D38" s="276"/>
       <c r="E38" s="542" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F38" s="530"/>
       <c r="G38" s="531"/>
@@ -16675,7 +16440,7 @@
         <v>106</v>
       </c>
       <c r="E40" s="542" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F40" s="530"/>
       <c r="G40" s="531"/>
@@ -16703,12 +16468,10 @@
       <c r="C41" s="74"/>
       <c r="D41" s="276"/>
       <c r="E41" s="542" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F41" s="530"/>
-      <c r="G41" s="531" t="s">
-        <v>238</v>
-      </c>
+      <c r="G41" s="531"/>
       <c r="H41" s="543" t="s">
         <v>138</v>
       </c>
@@ -16736,9 +16499,7 @@
         <v>107</v>
       </c>
       <c r="F42" s="530"/>
-      <c r="G42" s="531" t="s">
-        <v>237</v>
-      </c>
+      <c r="G42" s="531"/>
       <c r="H42" s="543" t="s">
         <v>138</v>
       </c>
@@ -16763,12 +16524,10 @@
       <c r="C43" s="74"/>
       <c r="D43" s="276"/>
       <c r="E43" s="542" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F43" s="530"/>
-      <c r="G43" s="531" t="s">
-        <v>237</v>
-      </c>
+      <c r="G43" s="531"/>
       <c r="H43" s="543" t="s">
         <v>138</v>
       </c>
@@ -16787,7 +16546,7 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="40" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B44" s="101"/>
       <c r="C44" s="74"/>
@@ -16798,10 +16557,10 @@
       <c r="F44" s="530"/>
       <c r="G44" s="531"/>
       <c r="H44" s="556" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="I44" s="557" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J44" s="557"/>
       <c r="K44" s="557"/>
@@ -16815,7 +16574,7 @@
     </row>
     <row r="45" spans="1:18" ht="22.5">
       <c r="A45" s="40" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B45" s="108"/>
       <c r="C45" s="561" t="s">
@@ -16823,17 +16582,15 @@
       </c>
       <c r="D45" s="562"/>
       <c r="E45" s="562" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F45" s="563"/>
-      <c r="G45" s="564" t="s">
-        <v>323</v>
-      </c>
+      <c r="G45" s="564"/>
       <c r="H45" s="565" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="I45" s="566" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="J45" s="566"/>
       <c r="K45" s="566"/>
@@ -16847,23 +16604,21 @@
     </row>
     <row r="46" spans="1:18" ht="22.5">
       <c r="A46" s="40" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B46" s="108"/>
       <c r="C46" s="63"/>
       <c r="D46" s="276"/>
       <c r="E46" s="571" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F46" s="572"/>
-      <c r="G46" s="573" t="s">
-        <v>237</v>
-      </c>
+      <c r="G46" s="573"/>
       <c r="H46" s="574" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="I46" s="575" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="J46" s="575"/>
       <c r="K46" s="575"/>
@@ -16877,23 +16632,21 @@
     </row>
     <row r="47" spans="1:18" ht="22.5">
       <c r="A47" s="40" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B47" s="108"/>
       <c r="C47" s="63"/>
       <c r="D47" s="276"/>
       <c r="E47" s="580" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F47" s="581"/>
-      <c r="G47" s="582" t="s">
-        <v>237</v>
-      </c>
+      <c r="G47" s="582"/>
       <c r="H47" s="583" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I47" s="584" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J47" s="584"/>
       <c r="K47" s="584"/>
@@ -16907,18 +16660,16 @@
     </row>
     <row r="48" spans="1:18" ht="22.5">
       <c r="A48" s="40" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="B48" s="108"/>
       <c r="C48" s="63"/>
       <c r="D48" s="276"/>
       <c r="E48" s="589" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F48" s="590"/>
-      <c r="G48" s="591" t="s">
-        <v>237</v>
-      </c>
+      <c r="G48" s="591"/>
       <c r="H48" s="592" t="s">
         <v>142</v>
       </c>
@@ -16943,12 +16694,10 @@
       <c r="C49" s="63"/>
       <c r="D49" s="276"/>
       <c r="E49" s="598" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F49" s="599"/>
-      <c r="G49" s="600" t="s">
-        <v>237</v>
-      </c>
+      <c r="G49" s="600"/>
       <c r="H49" s="601" t="s">
         <v>142</v>
       </c>
@@ -16967,23 +16716,21 @@
     </row>
     <row r="50" spans="1:18" ht="22.5">
       <c r="A50" s="40" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B50" s="108"/>
       <c r="C50" s="63"/>
       <c r="D50" s="276"/>
       <c r="E50" s="607" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="F50" s="608"/>
-      <c r="G50" s="609" t="s">
-        <v>237</v>
-      </c>
+      <c r="G50" s="609"/>
       <c r="H50" s="610" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I50" s="611" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J50" s="611"/>
       <c r="K50" s="611"/>
@@ -16997,23 +16744,21 @@
     </row>
     <row r="51" spans="1:18" ht="22.5">
       <c r="A51" s="40" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B51" s="108"/>
       <c r="C51" s="63"/>
       <c r="D51" s="276"/>
       <c r="E51" s="616" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F51" s="617"/>
-      <c r="G51" s="618" t="s">
-        <v>237</v>
-      </c>
+      <c r="G51" s="618"/>
       <c r="H51" s="619" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I51" s="620" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J51" s="620"/>
       <c r="K51" s="620"/>
@@ -17027,23 +16772,21 @@
     </row>
     <row r="52" spans="1:18" ht="22.5">
       <c r="A52" s="40" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="B52" s="108"/>
       <c r="C52" s="63"/>
       <c r="D52" s="276"/>
       <c r="E52" s="625" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="F52" s="626"/>
-      <c r="G52" s="627" t="s">
-        <v>237</v>
-      </c>
+      <c r="G52" s="627"/>
       <c r="H52" s="628" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I52" s="629" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J52" s="629"/>
       <c r="K52" s="629"/>
@@ -17057,23 +16800,21 @@
     </row>
     <row r="53" spans="1:18" ht="22.5">
       <c r="A53" s="40" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="B53" s="110"/>
       <c r="C53" s="372"/>
       <c r="D53" s="276"/>
       <c r="E53" s="634" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="F53" s="635"/>
-      <c r="G53" s="636" t="s">
-        <v>237</v>
-      </c>
+      <c r="G53" s="636"/>
       <c r="H53" s="637" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I53" s="638" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J53" s="638"/>
       <c r="K53" s="638"/>
@@ -17099,7 +16840,7 @@
         <v>113</v>
       </c>
       <c r="E54" s="445" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="F54" s="446"/>
       <c r="G54" s="447"/>
@@ -17124,7 +16865,7 @@
         <v>43658</v>
       </c>
       <c r="P54" s="116" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q54" s="48"/>
       <c r="R54" s="449"/>
@@ -17140,9 +16881,7 @@
         <v>43</v>
       </c>
       <c r="F55" s="635"/>
-      <c r="G55" s="636" t="s">
-        <v>239</v>
-      </c>
+      <c r="G55" s="636"/>
       <c r="H55" s="644" t="s">
         <v>41</v>
       </c>
@@ -17170,9 +16909,7 @@
         <v>44</v>
       </c>
       <c r="F56" s="635"/>
-      <c r="G56" s="636" t="s">
-        <v>237</v>
-      </c>
+      <c r="G56" s="636"/>
       <c r="H56" s="644" t="s">
         <v>41</v>
       </c>
@@ -17222,14 +16959,14 @@
         <v>43658</v>
       </c>
       <c r="P57" s="35" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q57" s="33"/>
       <c r="R57" s="454"/>
     </row>
     <row r="58" spans="1:18" s="41" customFormat="1" ht="22.5">
       <c r="A58" s="40" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
@@ -17238,9 +16975,7 @@
         <v>46</v>
       </c>
       <c r="F58" s="635"/>
-      <c r="G58" s="636" t="s">
-        <v>239</v>
-      </c>
+      <c r="G58" s="636"/>
       <c r="H58" s="644" t="s">
         <v>41</v>
       </c>
@@ -17264,15 +16999,13 @@
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
       <c r="D59" s="455" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="E59" s="647" t="s">
         <v>47</v>
       </c>
       <c r="F59" s="648"/>
-      <c r="G59" s="649" t="s">
-        <v>240</v>
-      </c>
+      <c r="G59" s="649"/>
       <c r="H59" s="650" t="s">
         <v>41</v>
       </c>
@@ -17291,7 +17024,7 @@
     </row>
     <row r="60" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A60" s="40" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
@@ -17300,9 +17033,7 @@
         <v>48</v>
       </c>
       <c r="F60" s="648"/>
-      <c r="G60" s="649" t="s">
-        <v>444</v>
-      </c>
+      <c r="G60" s="649"/>
       <c r="H60" s="650" t="s">
         <v>41</v>
       </c>
@@ -17321,7 +17052,7 @@
     </row>
     <row r="61" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A61" s="40" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
@@ -17341,7 +17072,7 @@
         <v>222</v>
       </c>
       <c r="K61" s="459" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="L61" s="36"/>
       <c r="M61" s="34"/>
@@ -17352,14 +17083,14 @@
         <v>43658</v>
       </c>
       <c r="P61" s="35" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q61" s="33"/>
       <c r="R61" s="460"/>
     </row>
     <row r="62" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A62" s="40" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
@@ -17392,14 +17123,14 @@
         <v>43658</v>
       </c>
       <c r="P62" s="35" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q62" s="33"/>
       <c r="R62" s="460"/>
     </row>
     <row r="63" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A63" s="40" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
@@ -17419,7 +17150,7 @@
         <v>222</v>
       </c>
       <c r="K63" s="459" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="L63" s="36"/>
       <c r="M63" s="34"/>
@@ -17430,14 +17161,14 @@
         <v>43658</v>
       </c>
       <c r="P63" s="35" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q63" s="33"/>
       <c r="R63" s="460"/>
     </row>
     <row r="64" spans="1:18" s="32" customFormat="1" ht="33.75">
       <c r="A64" s="40" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
@@ -17450,7 +17181,7 @@
       <c r="F64" s="648"/>
       <c r="G64" s="649"/>
       <c r="H64" s="650" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="I64" s="650" t="s">
         <v>55</v>
@@ -17467,7 +17198,7 @@
     </row>
     <row r="65" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A65" s="40" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="B65" s="39"/>
       <c r="C65" s="39"/>
@@ -17478,7 +17209,7 @@
       <c r="F65" s="648"/>
       <c r="G65" s="649"/>
       <c r="H65" s="650" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="I65" s="650" t="s">
         <v>55</v>
@@ -17495,7 +17226,7 @@
     </row>
     <row r="66" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A66" s="40" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
@@ -17504,11 +17235,9 @@
         <v>169</v>
       </c>
       <c r="F66" s="648"/>
-      <c r="G66" s="649" t="s">
-        <v>242</v>
-      </c>
+      <c r="G66" s="649"/>
       <c r="H66" s="650" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="I66" s="650" t="s">
         <v>55</v>
@@ -17525,7 +17254,7 @@
     </row>
     <row r="67" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A67" s="40" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
@@ -17534,13 +17263,13 @@
         <v>170</v>
       </c>
       <c r="F67" s="648" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G67" s="649" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H67" s="650" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="I67" s="650" t="s">
         <v>55</v>
@@ -17557,7 +17286,7 @@
     </row>
     <row r="68" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A68" s="40" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
@@ -17566,11 +17295,9 @@
         <v>109</v>
       </c>
       <c r="F68" s="648"/>
-      <c r="G68" s="649" t="s">
-        <v>359</v>
-      </c>
+      <c r="G68" s="649"/>
       <c r="H68" s="650" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="I68" s="650" t="s">
         <v>55</v>
@@ -17587,20 +17314,18 @@
     </row>
     <row r="69" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A69" s="40" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="B69" s="39"/>
       <c r="C69" s="39"/>
       <c r="D69" s="72"/>
       <c r="E69" s="651" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="F69" s="648"/>
-      <c r="G69" s="649" t="s">
-        <v>237</v>
-      </c>
+      <c r="G69" s="649"/>
       <c r="H69" s="650" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="I69" s="650" t="s">
         <v>55</v>
@@ -17617,7 +17342,7 @@
     </row>
     <row r="70" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A70" s="40" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
@@ -17626,11 +17351,9 @@
         <v>110</v>
       </c>
       <c r="F70" s="648"/>
-      <c r="G70" s="649" t="s">
-        <v>244</v>
-      </c>
+      <c r="G70" s="649"/>
       <c r="H70" s="650" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="I70" s="650" t="s">
         <v>55</v>
@@ -17647,20 +17370,18 @@
     </row>
     <row r="71" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A71" s="40" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
       <c r="D71" s="254"/>
       <c r="E71" s="651" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="F71" s="648"/>
-      <c r="G71" s="649" t="s">
-        <v>237</v>
-      </c>
+      <c r="G71" s="649"/>
       <c r="H71" s="650" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="I71" s="650" t="s">
         <v>55</v>
@@ -17677,7 +17398,7 @@
     </row>
     <row r="72" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A72" s="40" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="B72" s="39"/>
       <c r="C72" s="39"/>
@@ -17685,15 +17406,15 @@
         <v>165</v>
       </c>
       <c r="E72" s="651" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="F72" s="648"/>
       <c r="G72" s="649"/>
       <c r="H72" s="650" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="I72" s="76" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="J72" s="651"/>
       <c r="K72" s="651"/>
@@ -17707,7 +17428,7 @@
     </row>
     <row r="73" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A73" s="40" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="B73" s="39"/>
       <c r="C73" s="39"/>
@@ -17720,7 +17441,7 @@
       <c r="F73" s="648"/>
       <c r="G73" s="649"/>
       <c r="H73" s="650" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="I73" s="653" t="s">
         <v>59</v>
@@ -17737,18 +17458,18 @@
     </row>
     <row r="74" spans="1:18" s="32" customFormat="1">
       <c r="A74" s="40" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="B74" s="39"/>
       <c r="C74" s="39"/>
       <c r="D74" s="72"/>
       <c r="E74" s="651" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="F74" s="648"/>
       <c r="G74" s="649"/>
       <c r="H74" s="650" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="I74" s="653" t="s">
         <v>59</v>
@@ -17765,7 +17486,7 @@
     </row>
     <row r="75" spans="1:18" s="32" customFormat="1">
       <c r="A75" s="40" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
@@ -17776,7 +17497,7 @@
       <c r="F75" s="648"/>
       <c r="G75" s="649"/>
       <c r="H75" s="650" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="I75" s="653" t="s">
         <v>59</v>
@@ -17793,7 +17514,7 @@
     </row>
     <row r="76" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A76" s="40" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="B76" s="39"/>
       <c r="C76" s="39"/>
@@ -17806,7 +17527,7 @@
       <c r="F76" s="648"/>
       <c r="G76" s="649"/>
       <c r="H76" s="650" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="I76" s="653" t="s">
         <v>59</v>
@@ -17823,7 +17544,7 @@
     </row>
     <row r="77" spans="1:18" s="32" customFormat="1">
       <c r="A77" s="40" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
@@ -17834,7 +17555,7 @@
       <c r="F77" s="648"/>
       <c r="G77" s="649"/>
       <c r="H77" s="650" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="I77" s="653" t="s">
         <v>59</v>
@@ -17851,7 +17572,7 @@
     </row>
     <row r="78" spans="1:18" s="32" customFormat="1">
       <c r="A78" s="40" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="B78" s="39"/>
       <c r="C78" s="39"/>
@@ -17862,7 +17583,7 @@
       <c r="F78" s="648"/>
       <c r="G78" s="649"/>
       <c r="H78" s="650" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="I78" s="653" t="s">
         <v>59</v>
@@ -17879,7 +17600,7 @@
     </row>
     <row r="79" spans="1:18" s="32" customFormat="1">
       <c r="A79" s="40" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
@@ -17890,7 +17611,7 @@
       <c r="F79" s="57"/>
       <c r="G79" s="479"/>
       <c r="H79" s="650" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="I79" s="653" t="s">
         <v>59</v>
@@ -17907,7 +17628,7 @@
     </row>
     <row r="80" spans="1:18" s="32" customFormat="1" ht="22.5" hidden="1">
       <c r="A80" s="40" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
@@ -17916,13 +17637,13 @@
       </c>
       <c r="E80" s="507"/>
       <c r="F80" s="57" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G80" s="479" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="H80" s="650" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="I80" s="653" t="s">
         <v>201</v>
@@ -17939,7 +17660,7 @@
     </row>
     <row r="81" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A81" s="40" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B81" s="39"/>
       <c r="C81" s="461" t="s">
@@ -17952,7 +17673,7 @@
       <c r="F81" s="463"/>
       <c r="G81" s="464"/>
       <c r="H81" s="461" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I81" s="461" t="s">
         <v>66</v>
@@ -17972,14 +17693,14 @@
         <v>43658</v>
       </c>
       <c r="P81" s="468" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q81" s="467"/>
       <c r="R81" s="469"/>
     </row>
     <row r="82" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A82" s="40" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B82" s="39"/>
       <c r="C82" s="39"/>
@@ -17992,7 +17713,7 @@
       <c r="F82" s="463"/>
       <c r="G82" s="464"/>
       <c r="H82" s="461" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I82" s="461" t="s">
         <v>66</v>
@@ -18012,25 +17733,25 @@
         <v>43658</v>
       </c>
       <c r="P82" s="468" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q82" s="467"/>
       <c r="R82" s="469"/>
     </row>
     <row r="83" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A83" s="40" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="B83" s="39"/>
       <c r="C83" s="39"/>
       <c r="D83" s="470"/>
       <c r="E83" s="471" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="F83" s="463"/>
       <c r="G83" s="464"/>
       <c r="H83" s="461" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I83" s="461" t="s">
         <v>66</v>
@@ -18050,14 +17771,14 @@
         <v>43658</v>
       </c>
       <c r="P83" s="468" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q83" s="467"/>
       <c r="R83" s="469"/>
     </row>
     <row r="84" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A84" s="40" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="B84" s="39"/>
       <c r="C84" s="39"/>
@@ -18068,7 +17789,7 @@
       <c r="F84" s="463"/>
       <c r="G84" s="464"/>
       <c r="H84" s="461" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I84" s="461" t="s">
         <v>66</v>
@@ -18088,14 +17809,14 @@
         <v>43658</v>
       </c>
       <c r="P84" s="468" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q84" s="467"/>
       <c r="R84" s="469"/>
     </row>
     <row r="85" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A85" s="40" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B85" s="39"/>
       <c r="C85" s="39"/>
@@ -18106,7 +17827,7 @@
       <c r="F85" s="463"/>
       <c r="G85" s="464"/>
       <c r="H85" s="461" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I85" s="461" t="s">
         <v>66</v>
@@ -18126,14 +17847,14 @@
         <v>43658</v>
       </c>
       <c r="P85" s="468" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q85" s="467"/>
       <c r="R85" s="469"/>
     </row>
     <row r="86" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A86" s="40" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="B86" s="39"/>
       <c r="C86" s="39"/>
@@ -18144,7 +17865,7 @@
       <c r="F86" s="463"/>
       <c r="G86" s="464"/>
       <c r="H86" s="461" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I86" s="461" t="s">
         <v>66</v>
@@ -18164,29 +17885,29 @@
         <v>43658</v>
       </c>
       <c r="P86" s="468" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q86" s="467"/>
       <c r="R86" s="469"/>
     </row>
     <row r="87" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A87" s="40" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B87" s="39"/>
       <c r="C87" s="39"/>
       <c r="D87" s="655" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="E87" s="656"/>
       <c r="F87" s="657" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G87" s="658" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="H87" s="653" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I87" s="653" t="s">
         <v>66</v>
@@ -18203,7 +17924,7 @@
     </row>
     <row r="88" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A88" s="40" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="B88" s="39"/>
       <c r="C88" s="39"/>
@@ -18212,13 +17933,13 @@
       </c>
       <c r="E88" s="656"/>
       <c r="F88" s="657" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G88" s="658" t="s">
         <v>237</v>
       </c>
       <c r="H88" s="653" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I88" s="653" t="s">
         <v>66</v>
@@ -18235,7 +17956,7 @@
     </row>
     <row r="89" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A89" s="40" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B89" s="39"/>
       <c r="C89" s="39"/>
@@ -18244,13 +17965,13 @@
       </c>
       <c r="E89" s="656"/>
       <c r="F89" s="657" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G89" s="658" t="s">
         <v>237</v>
       </c>
       <c r="H89" s="653" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I89" s="653" t="s">
         <v>66</v>
@@ -18267,7 +17988,7 @@
     </row>
     <row r="90" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A90" s="40" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B90" s="39"/>
       <c r="C90" s="39"/>
@@ -18276,13 +17997,13 @@
       </c>
       <c r="E90" s="656"/>
       <c r="F90" s="657" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G90" s="658" t="s">
         <v>237</v>
       </c>
       <c r="H90" s="653" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I90" s="653" t="s">
         <v>66</v>
@@ -18299,7 +18020,7 @@
     </row>
     <row r="91" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A91" s="40" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B91" s="39"/>
       <c r="C91" s="39"/>
@@ -18308,13 +18029,13 @@
       </c>
       <c r="E91" s="656"/>
       <c r="F91" s="657" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G91" s="658" t="s">
         <v>237</v>
       </c>
       <c r="H91" s="653" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I91" s="653" t="s">
         <v>66</v>
@@ -18331,7 +18052,7 @@
     </row>
     <row r="92" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A92" s="40" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B92" s="39"/>
       <c r="C92" s="39"/>
@@ -18342,7 +18063,7 @@
       <c r="F92" s="657"/>
       <c r="G92" s="658"/>
       <c r="H92" s="653" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I92" s="653" t="s">
         <v>66</v>
@@ -18359,7 +18080,7 @@
     </row>
     <row r="93" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A93" s="40" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B93" s="39"/>
       <c r="C93" s="39"/>
@@ -18370,7 +18091,7 @@
       <c r="F93" s="657"/>
       <c r="G93" s="658"/>
       <c r="H93" s="653" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I93" s="653" t="s">
         <v>66</v>
@@ -18387,7 +18108,7 @@
     </row>
     <row r="94" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A94" s="40" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="B94" s="39"/>
       <c r="C94" s="39"/>
@@ -18398,7 +18119,7 @@
       <c r="F94" s="657"/>
       <c r="G94" s="658"/>
       <c r="H94" s="653" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I94" s="653" t="s">
         <v>66</v>
@@ -18415,7 +18136,7 @@
     </row>
     <row r="95" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A95" s="40" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B95" s="39"/>
       <c r="C95" s="39"/>
@@ -18426,7 +18147,7 @@
       <c r="F95" s="657"/>
       <c r="G95" s="658"/>
       <c r="H95" s="647" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I95" s="647" t="s">
         <v>66</v>
@@ -18443,7 +18164,7 @@
     </row>
     <row r="96" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A96" s="40" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B96" s="39"/>
       <c r="C96" s="39"/>
@@ -18454,7 +18175,7 @@
       <c r="F96" s="657"/>
       <c r="G96" s="658"/>
       <c r="H96" s="653" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I96" s="653" t="s">
         <v>66</v>
@@ -18471,7 +18192,7 @@
     </row>
     <row r="97" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A97" s="40" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B97" s="39"/>
       <c r="C97" s="39"/>
@@ -18480,13 +18201,13 @@
       </c>
       <c r="E97" s="656"/>
       <c r="F97" s="657" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G97" s="658" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="H97" s="647" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I97" s="647" t="s">
         <v>66</v>
@@ -18503,18 +18224,18 @@
     </row>
     <row r="98" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A98" s="40" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B98" s="39"/>
       <c r="C98" s="39"/>
       <c r="D98" s="77" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="E98" s="411"/>
       <c r="F98" s="648"/>
       <c r="G98" s="649"/>
       <c r="H98" s="666" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I98" s="666" t="s">
         <v>66</v>
@@ -18531,18 +18252,18 @@
     </row>
     <row r="99" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A99" s="40" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="B99" s="39"/>
       <c r="C99" s="39"/>
       <c r="D99" s="77" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="E99" s="411"/>
       <c r="F99" s="635"/>
       <c r="G99" s="636"/>
       <c r="H99" s="672" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I99" s="672" t="s">
         <v>66</v>
@@ -18559,7 +18280,7 @@
     </row>
     <row r="100" spans="1:18" s="32" customFormat="1" ht="45" customHeight="1">
       <c r="A100" s="144" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="B100" s="39"/>
       <c r="C100" s="39"/>
@@ -18570,7 +18291,7 @@
       <c r="F100" s="626"/>
       <c r="G100" s="627"/>
       <c r="H100" s="425" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I100" s="425" t="s">
         <v>66</v>
@@ -18587,22 +18308,22 @@
     </row>
     <row r="101" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A101" s="153" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="B101" s="39"/>
       <c r="C101" s="39"/>
       <c r="D101" s="77" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E101" s="411"/>
       <c r="F101" s="626" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G101" s="627" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="H101" s="72" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I101" s="72" t="s">
         <v>66</v>
@@ -18619,7 +18340,7 @@
     </row>
     <row r="102" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A102" s="144" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B102" s="79"/>
       <c r="C102" s="79"/>
@@ -18628,16 +18349,16 @@
       </c>
       <c r="E102" s="424"/>
       <c r="F102" s="626" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G102" s="627" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H102" s="425" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I102" s="425" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J102" s="678"/>
       <c r="K102" s="678"/>
@@ -18844,9 +18565,7 @@
   </sheetPr>
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
   <cols>
@@ -18926,14 +18645,11 @@
       <c r="R8" s="27"/>
     </row>
     <row r="9" spans="1:18" ht="12" thickTop="1">
-      <c r="F9" s="25" t="s">
-        <v>248</v>
-      </c>
       <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>9</v>
@@ -18969,7 +18685,7 @@
         <v>2</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="N10" s="30" t="s">
         <v>5</v>
@@ -18989,7 +18705,7 @@
     </row>
     <row r="11" spans="1:18" s="32" customFormat="1" ht="78.75">
       <c r="A11" s="680" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="B11" s="681" t="s">
         <v>89</v>
@@ -19004,16 +18720,16 @@
       <c r="F11" s="81"/>
       <c r="G11" s="81"/>
       <c r="H11" s="681" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="I11" s="681" t="s">
         <v>200</v>
       </c>
       <c r="J11" s="684" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="K11" s="684" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="L11" s="685"/>
       <c r="M11" s="686"/>
@@ -19024,14 +18740,14 @@
         <v>43658</v>
       </c>
       <c r="P11" s="686" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="686"/>
       <c r="R11" s="686"/>
     </row>
     <row r="12" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A12" s="688" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -19042,7 +18758,7 @@
       <c r="F12" s="81"/>
       <c r="G12" s="81"/>
       <c r="H12" s="681" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="I12" s="681" t="s">
         <v>91</v>
@@ -19062,14 +18778,14 @@
         <v>43658</v>
       </c>
       <c r="P12" s="693" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="Q12" s="693"/>
       <c r="R12" s="693"/>
     </row>
     <row r="13" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A13" s="688" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -19080,7 +18796,7 @@
       <c r="F13" s="81"/>
       <c r="G13" s="81"/>
       <c r="H13" s="681" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="I13" s="681" t="s">
         <v>91</v>
@@ -19100,14 +18816,14 @@
         <v>43658</v>
       </c>
       <c r="P13" s="693" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q13" s="693"/>
       <c r="R13" s="693"/>
     </row>
     <row r="14" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A14" s="688" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -19118,7 +18834,7 @@
       <c r="F14" s="83"/>
       <c r="G14" s="83"/>
       <c r="H14" s="719" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="I14" s="719" t="s">
         <v>91</v>
@@ -19135,7 +18851,7 @@
     </row>
     <row r="15" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A15" s="688" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -19148,7 +18864,7 @@
       <c r="F15" s="83"/>
       <c r="G15" s="83"/>
       <c r="H15" s="719" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="I15" s="719" t="s">
         <v>91</v>
@@ -19165,7 +18881,7 @@
     </row>
     <row r="16" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A16" s="688" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -19176,7 +18892,7 @@
       <c r="F16" s="83"/>
       <c r="G16" s="83"/>
       <c r="H16" s="719" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="I16" s="719" t="s">
         <v>91</v>
@@ -19193,7 +18909,7 @@
     </row>
     <row r="17" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A17" s="688" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -19204,7 +18920,7 @@
       <c r="F17" s="83"/>
       <c r="G17" s="83"/>
       <c r="H17" s="719" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="I17" s="719" t="s">
         <v>91</v>
@@ -19221,7 +18937,7 @@
     </row>
     <row r="18" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A18" s="688" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -19232,7 +18948,7 @@
       <c r="F18" s="83"/>
       <c r="G18" s="83"/>
       <c r="H18" s="719" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="I18" s="719" t="s">
         <v>91</v>
@@ -19249,12 +18965,12 @@
     </row>
     <row r="19" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A19" s="688" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
       <c r="D19" s="84" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="E19" s="76" t="s">
         <v>98</v>
@@ -19262,7 +18978,7 @@
       <c r="F19" s="83"/>
       <c r="G19" s="83"/>
       <c r="H19" s="719" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="I19" s="719" t="s">
         <v>91</v>
@@ -19279,7 +18995,7 @@
     </row>
     <row r="20" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A20" s="688" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
@@ -19287,12 +19003,12 @@
         <v>116</v>
       </c>
       <c r="E20" s="76" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="F20" s="83"/>
       <c r="G20" s="83"/>
       <c r="H20" s="719" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="I20" s="719" t="s">
         <v>91</v>
@@ -19309,18 +19025,18 @@
     </row>
     <row r="21" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A21" s="688" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
       <c r="D21" s="789" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="E21" s="790"/>
       <c r="F21" s="83"/>
       <c r="G21" s="83"/>
       <c r="H21" s="719" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="I21" s="719" t="s">
         <v>91</v>
@@ -19337,7 +19053,7 @@
     </row>
     <row r="22" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A22" s="688" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="B22" s="44"/>
       <c r="C22" s="695" t="s">
@@ -19350,7 +19066,7 @@
       <c r="F22" s="81"/>
       <c r="G22" s="81"/>
       <c r="H22" s="681" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="I22" s="681" t="s">
         <v>91</v>
@@ -19370,14 +19086,14 @@
         <v>43658</v>
       </c>
       <c r="P22" s="693" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q22" s="693"/>
       <c r="R22" s="693"/>
     </row>
     <row r="23" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A23" s="688" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="B23" s="45"/>
       <c r="C23" s="45"/>
@@ -19388,7 +19104,7 @@
       <c r="F23" s="81"/>
       <c r="G23" s="81"/>
       <c r="H23" s="681" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="I23" s="681" t="s">
         <v>91</v>
@@ -19406,14 +19122,14 @@
         <v>43658</v>
       </c>
       <c r="P23" s="693" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q23" s="693"/>
       <c r="R23" s="693"/>
     </row>
     <row r="24" spans="1:18" s="32" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A24" s="720" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B24" s="719" t="s">
         <v>175</v>
@@ -19424,16 +19140,16 @@
       <c r="D24" s="717"/>
       <c r="E24" s="716"/>
       <c r="F24" s="83" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="G24" s="715" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="H24" s="84" t="s">
         <v>29</v>
       </c>
       <c r="I24" s="76" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="J24" s="714"/>
       <c r="K24" s="714"/>
@@ -19447,25 +19163,25 @@
     </row>
     <row r="25" spans="1:18" s="32" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A25" s="710" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="B25" s="709"/>
       <c r="C25" s="708" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="D25" s="707"/>
       <c r="E25" s="706"/>
       <c r="F25" s="83" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="G25" s="83" t="s">
         <v>237</v>
       </c>
       <c r="H25" s="705" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="I25" s="705" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="J25" s="704"/>
       <c r="K25" s="704"/>
@@ -19581,7 +19297,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="43" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"&amp;9- &amp;P -</oddFooter>
   </headerFooter>
